--- a/build/Test_Data.xlsx
+++ b/build/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,7 +913,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="5">
-        <v>230</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
